--- a/tests-doc/Тест-кейсы авторизация по временному коду.xlsx
+++ b/tests-doc/Тест-кейсы авторизация по временному коду.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
   <si>
     <t>Тест-кейс ID</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Тестировщик</t>
   </si>
   <si>
-    <t>Шариков П. П.</t>
-  </si>
-  <si>
     <t>Онлайм Web</t>
   </si>
   <si>
@@ -172,7 +169,7 @@
     <t>Номер телефона - "81112223344"</t>
   </si>
   <si>
-    <t>Отображается форма для ввода кода из шести полей. Отображается введеный ранее номер телефона.</t>
+    <t>Отображается форма для ввода кода из шести полей. Отображается введеный ранее номер телефона - 81112223344.</t>
   </si>
   <si>
     <t xml:space="preserve">3) Нажать на кнопку "Изменить номер телефона" </t>
@@ -190,7 +187,7 @@
     <t>5) Нажать на кнопку получить код</t>
   </si>
   <si>
-    <t>Отображается форма для ввода кода из шести полей. Отображается новый номер телефона.</t>
+    <t>Отображается форма для ввода кода из шести полей. Отображается новый номер телефона - "82223334455".</t>
   </si>
   <si>
     <t>Temp-Code-3</t>
@@ -642,20 +639,18 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="6"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -665,52 +660,52 @@
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" ht="47.25" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" ht="59.25" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" ht="95.25" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
@@ -727,13 +722,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="4"/>
@@ -742,13 +737,13 @@
     </row>
     <row r="10" ht="48.0" customHeight="1">
       <c r="A10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
@@ -757,11 +752,11 @@
     </row>
     <row r="11" ht="59.25" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
@@ -770,13 +765,13 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
@@ -849,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -885,20 +880,18 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="6"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -908,52 +901,52 @@
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" ht="47.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" ht="59.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" ht="95.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
@@ -970,13 +963,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="4"/>
@@ -985,13 +978,13 @@
     </row>
     <row r="10" ht="48.0" customHeight="1">
       <c r="A10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
@@ -1000,11 +993,11 @@
     </row>
     <row r="11" ht="59.25" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
@@ -1013,13 +1006,13 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C12" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
@@ -1092,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1128,20 +1121,18 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="6"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1151,52 +1142,52 @@
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" ht="47.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" ht="59.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" ht="95.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
@@ -1213,13 +1204,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="4"/>
@@ -1228,26 +1219,26 @@
     </row>
     <row r="10" ht="48.0" customHeight="1">
       <c r="A10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="C10" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" ht="59.25" customHeight="1">
+    <row r="11" ht="63.75" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
@@ -1256,13 +1247,13 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
@@ -1271,10 +1262,10 @@
     </row>
     <row r="13">
       <c r="A13" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
@@ -1283,10 +1274,10 @@
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
@@ -1349,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1385,20 +1376,18 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="6"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1408,52 +1397,52 @@
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" ht="47.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" ht="66.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" ht="95.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
@@ -1470,13 +1459,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="4"/>
@@ -1485,13 +1474,13 @@
     </row>
     <row r="10" ht="48.0" customHeight="1">
       <c r="A10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
@@ -1500,11 +1489,11 @@
     </row>
     <row r="11" ht="59.25" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
@@ -1513,13 +1502,13 @@
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
